--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P12_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P12_trail3 Features.xlsx
@@ -5547,7 +5547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5558,29 +5558,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5601,115 +5599,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5726,72 +5714,66 @@
         <v>3.562869760116185e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.781451042444538</v>
+        <v>2.01561245538929e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>7.830191709263012</v>
+        <v>4.490859977228739e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.01561245538929e-06</v>
+        <v>0.08647147642440886</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.490859977228739e-06</v>
+        <v>0.2174029365917157</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.08647147642440886</v>
+        <v>0.05463573801387388</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2174029365917157</v>
+        <v>1.891994155846144</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05463573801387388</v>
+        <v>1.995246836991252</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.912840916443807</v>
+        <v>5.360020269013834</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.995246836991252</v>
+        <v>1.01551967762587e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.360020269013834</v>
+        <v>378289744.9135188</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.01551967762587e-15</v>
+        <v>3.148015628418711e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>378289744.9135188</v>
+        <v>145.3240455687643</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.148015628418711e-07</v>
+        <v>0.0001473624509802528</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>145.3240455687643</v>
+        <v>12.32206860001657</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001473624509802528</v>
+        <v>1.331959766789501</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12.32206860001657</v>
+        <v>0.02237453821922951</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.331959766789501</v>
+        <v>4.264129803806178</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02237453821922951</v>
+        <v>0.9578946383978766</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.264129803806178</v>
+        <v>1.237628955815992</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9578946383978766</v>
+        <v>33</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.237628955815992</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>2.859774334752842</v>
       </c>
     </row>
@@ -5806,72 +5788,66 @@
         <v>2.9002175622586e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-2.672632577937992</v>
+        <v>1.616540168947911e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>7.239371999398031</v>
+        <v>4.518301306379033e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.616540168947911e-06</v>
+        <v>0.08426512470159192</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.518301306379033e-06</v>
+        <v>0.2091075800645916</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.08426512470159192</v>
+        <v>0.050735787010659</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2091075800645916</v>
+        <v>1.902190734367406</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.050735787010659</v>
+        <v>2.074009101081395</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.922604821366634</v>
+        <v>5.683137196024482</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.074009101081395</v>
+        <v>5.158605887898592e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.683137196024482</v>
+        <v>781499257.3039949</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.158605887898592e-16</v>
+        <v>1.540669574981502e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>781499257.3039949</v>
+        <v>315.0572578556915</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.540669574981502e-07</v>
+        <v>0.0001324825902683716</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>315.0572578556915</v>
+        <v>10.38979215139112</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001324825902683716</v>
+        <v>1.81059818266544</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.38979215139112</v>
+        <v>0.01430120163386067</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.81059818266544</v>
+        <v>4.487687347864375</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01430120163386067</v>
+        <v>0.9579434876148814</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.487687347864375</v>
+        <v>1.238268559417284</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9579434876148814</v>
+        <v>44</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.238268559417284</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>2.704918354042729</v>
       </c>
     </row>
@@ -5886,72 +5862,66 @@
         <v>2.384258501508376e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-2.557434298501061</v>
+        <v>1.315341200632045e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>6.684274484453368</v>
+        <v>4.540225900618442e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.315341200632045e-06</v>
+        <v>0.08244992439377305</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.540225900618442e-06</v>
+        <v>0.2041005388595704</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.08244992439377305</v>
+        <v>0.04837644174202116</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2041005388595704</v>
+        <v>1.895678852093584</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04837644174202116</v>
+        <v>2.261992136737303</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.911826581291301</v>
+        <v>6.249005065383621</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.261992136737303</v>
+        <v>7.204275151336539e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>6.249005065383621</v>
+        <v>566391120.502085</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.204275151336539e-16</v>
+        <v>2.118388548950966e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>566391120.502085</v>
+        <v>231.1123553813983</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.118388548950966e-07</v>
+        <v>0.000172221400823181</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>231.1123553813983</v>
+        <v>9.332404272936829</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000172221400823181</v>
+        <v>1.841143841478587</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.332404272936829</v>
+        <v>0.01499941098859132</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.841143841478587</v>
+        <v>3.672896163247928</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01499941098859132</v>
+        <v>0.9569200493258303</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.672896163247928</v>
+        <v>1.210412365457341</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9569200493258303</v>
+        <v>40</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.210412365457341</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.24192016985136</v>
       </c>
     </row>
@@ -5966,72 +5936,66 @@
         <v>1.976842856822575e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-2.422902132394947</v>
+        <v>1.081330270224973e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>6.088174736063056</v>
+        <v>4.557913466677208e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.081330270224973e-06</v>
+        <v>0.08028253786802064</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.557913466677208e-06</v>
+        <v>0.2013877255670379</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.08028253786802064</v>
+        <v>0.04693133133872494</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2013877255670379</v>
+        <v>1.896491293130714</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04693133133872494</v>
+        <v>2.122315659562086</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.910138138245418</v>
+        <v>4.689853924792417</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.122315659562086</v>
+        <v>1.594313318059572e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.689853924792417</v>
+        <v>252764181.1622645</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.594313318059572e-15</v>
+        <v>4.7533397817846e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>252764181.1622645</v>
+        <v>101.8602494647671</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.7533397817846e-07</v>
+        <v>0.0002044268343496189</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>101.8602494647671</v>
+        <v>10.34722818796138</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002044268343496189</v>
+        <v>1.42864732221345</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.34722818796138</v>
+        <v>0.0218869858350749</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.42864732221345</v>
+        <v>2.982074762546727</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0218869858350749</v>
+        <v>0.9560732149708812</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.982074762546727</v>
+        <v>1.329357670192409</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9560732149708812</v>
+        <v>13</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.329357670192409</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.6076549332943176</v>
       </c>
     </row>
@@ -6046,72 +6010,66 @@
         <v>1.653537137073706e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-2.260395792830986</v>
+        <v>8.952788534202926e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>5.41860301659419</v>
+        <v>4.572158714469182e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>8.952788534202926e-07</v>
+        <v>0.0770227099282024</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.572158714469182e-06</v>
+        <v>0.2000625805404435</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.0770227099282024</v>
+        <v>0.0458929110414048</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2000625805404435</v>
+        <v>1.901150993827659</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0458929110414048</v>
+        <v>2.110089566529746</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.911945011541806</v>
+        <v>4.0686682960747</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.110089566529746</v>
+        <v>2.118301316776176e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.0686682960747</v>
+        <v>190943727.9620565</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.118301316776176e-15</v>
+        <v>6.303294217760903e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>190943727.9620565</v>
+        <v>77.23222221255028</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>6.303294217760903e-07</v>
+        <v>0.0002107270741844389</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>77.23222221255028</v>
+        <v>12.25790436369715</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002107270741844389</v>
+        <v>1.092693821232712</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>12.25790436369715</v>
+        <v>0.03166305348997412</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.092693821232712</v>
+        <v>2.600349696793785</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.03166305348997412</v>
+        <v>0.9558204723293547</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.600349696793785</v>
+        <v>1.311869098255741</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9558204723293547</v>
+        <v>11</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.311869098255741</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.459890726724169</v>
       </c>
     </row>
@@ -6126,72 +6084,66 @@
         <v>1.3969629628864e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-2.063188325920738</v>
+        <v>7.47504958374195e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>4.670082091447686</v>
+        <v>4.583546284476047e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>7.47504958374195e-07</v>
+        <v>0.07261038592077383</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.583546284476047e-06</v>
+        <v>0.2009821643074781</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.07261038592077383</v>
+        <v>0.04560981176064308</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2009821643074781</v>
+        <v>1.894989799465107</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04560981176064308</v>
+        <v>2.048946641760705</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.904926588807885</v>
+        <v>3.945847565655377</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.048946641760705</v>
+        <v>2.252224602909097e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.945847565655377</v>
+        <v>176984903.1555567</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.252224602909097e-15</v>
+        <v>6.788602440641606e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>176984903.1555567</v>
+        <v>70.54790857234779</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.788602440641606e-07</v>
+        <v>0.0002097677458257248</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>70.54790857234779</v>
+        <v>13.18798171245475</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0002097677458257248</v>
+        <v>1.00763913284753</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>13.18798171245475</v>
+        <v>0.03648340663546895</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.00763913284753</v>
+        <v>2.424207143553185</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.03648340663546895</v>
+        <v>0.9550087462485161</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.424207143553185</v>
+        <v>1.308587334916637</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9550087462485161</v>
+        <v>11</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.308587334916637</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.4273267876160786</v>
       </c>
     </row>
@@ -6206,72 +6158,66 @@
         <v>1.192807327710423e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-1.816726107360002</v>
+        <v>6.305249975411821e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>3.781983826866258</v>
+        <v>4.592593771085154e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>6.305249975411821e-07</v>
+        <v>0.06730231088121343</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.592593771085154e-06</v>
+        <v>0.2051890981030537</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.06730231088121343</v>
+        <v>0.04658155327992544</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2051890981030537</v>
+        <v>1.897500972171477</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.04658155327992544</v>
+        <v>2.044579030996397</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.906037201996735</v>
+        <v>3.928188813783057</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.044579030996397</v>
+        <v>2.272519385831238e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.928188813783057</v>
+        <v>169801348.5859185</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.272519385831238e-15</v>
+        <v>7.045748663942032e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>169801348.5859185</v>
+        <v>65.52241060511834</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>7.045748663942032e-07</v>
+        <v>0.0001890028646737881</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>65.52241060511834</v>
+        <v>11.84492866555613</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001890028646737881</v>
+        <v>1.091338246457305</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>11.84492866555613</v>
+        <v>0.02651754325283118</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.091338246457305</v>
+        <v>2.68729892867109</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02651754325283118</v>
+        <v>0.9552595127553346</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.68729892867109</v>
+        <v>1.358421972206642</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9552595127553346</v>
+        <v>11</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.358421972206642</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.3893781612799133</v>
       </c>
     </row>
@@ -6286,72 +6232,66 @@
         <v>1.031673033208324e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-1.51150232890704</v>
+        <v>5.343686637180144e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>2.711897242946005</v>
+        <v>4.599684583225731e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5.343686637180144e-07</v>
+        <v>0.06009474702454751</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.599684583225731e-06</v>
+        <v>0.2108781457085245</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.06009474702454751</v>
+        <v>0.04803364886254365</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2108781457085245</v>
+        <v>1.891306310099347</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.04803364886254365</v>
+        <v>2.004661997685912</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.896819930950475</v>
+        <v>3.816658068652555</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.004661997685912</v>
+        <v>2.40727551554577e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.816658068652555</v>
+        <v>159625527.4343686</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.40727551554577e-15</v>
+        <v>7.453552709258082e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>159625527.4343686</v>
+        <v>61.33812400518473</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>7.453552709258082e-07</v>
+        <v>0.0001715085248866752</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>61.33812400518473</v>
+        <v>9.625917841847329</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001715085248866752</v>
+        <v>1.293812331053577</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.625917841847329</v>
+        <v>0.0158916873735645</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.293812331053577</v>
+        <v>2.935683783455882</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0158916873735645</v>
+        <v>0.9554404492234618</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.935683783455882</v>
+        <v>1.383449847262702</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9554404492234618</v>
+        <v>11</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.383449847262702</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.3590193617699827</v>
       </c>
     </row>
@@ -6366,72 +6306,66 @@
         <v>9.080719399938077e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-1.156943243857776</v>
+        <v>4.554865091236907e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1.507228985768627</v>
+        <v>4.605062629794857e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4.554865091236907e-07</v>
+        <v>0.05065741093382638</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.605062629794857e-06</v>
+        <v>0.2178236305188353</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.05065741093382638</v>
+        <v>0.04997068671555534</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2178236305188353</v>
+        <v>1.898125825707233</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.04997068671555534</v>
+        <v>2.013187512739981</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.899615773706489</v>
+        <v>3.82801718294376</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.013187512739981</v>
+        <v>2.393010194435834e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.82801718294376</v>
+        <v>163125606.1158851</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.393010194435834e-15</v>
+        <v>7.341172400368571e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>163125606.1158851</v>
+        <v>63.67791361958916</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>7.341172400368571e-07</v>
+        <v>0.0001685218197931519</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>63.67791361958916</v>
+        <v>8.695560123821423</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001685218197931519</v>
+        <v>1.511600215103863</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.695560123821423</v>
+        <v>0.01274240090349922</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.511600215103863</v>
+        <v>3.012373348088225</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01274240090349922</v>
+        <v>0.9565617358303435</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.012373348088225</v>
+        <v>1.365917418768362</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9565617358303435</v>
+        <v>11</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.365917418768362</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.3398259423673766</v>
       </c>
     </row>
@@ -6446,72 +6380,66 @@
         <v>8.177882692783044e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.78618067288192</v>
+        <v>3.905724278345233e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.2855615861848619</v>
+        <v>4.608948935253289e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.905724278345233e-07</v>
+        <v>0.03928785005183581</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.608948935253289e-06</v>
+        <v>0.2245019884602525</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.03928785005183581</v>
+        <v>0.05190762263549805</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2245019884602525</v>
+        <v>1.89726408913216</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.05190762263549805</v>
+        <v>1.998381101943173</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.899054213051375</v>
+        <v>3.89809684649051</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.998381101943173</v>
+        <v>2.307740948789552e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.89809684649051</v>
+        <v>175849270.8951239</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.307740948789552e-15</v>
+        <v>6.816117537552828e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>175849270.8951239</v>
+        <v>71.3621950677999</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>6.816117537552828e-07</v>
+        <v>0.0001675996079909093</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>71.3621950677999</v>
+        <v>10.16932217933011</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001675996079909093</v>
+        <v>1.245291200832826</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.16932217933011</v>
+        <v>0.01733233249751914</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.245291200832826</v>
+        <v>2.931434438484463</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01733233249751914</v>
+        <v>0.9569149610186718</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.931434438484463</v>
+        <v>1.373683178019893</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9569149610186718</v>
+        <v>36</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.373683178019893</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.3471185076163608</v>
       </c>
     </row>
@@ -6526,72 +6454,66 @@
         <v>7.576840087983717e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.4635302731401353</v>
+        <v>3.349032858440234e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.7397425452248214</v>
+        <v>4.611534704634273e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.349032858440234e-07</v>
+        <v>0.02613107098598672</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.611534704634273e-06</v>
+        <v>0.2275740768286339</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.02613107098598672</v>
+        <v>0.05243670034338151</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2275740768286339</v>
+        <v>1.891884431988348</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.05243670034338151</v>
+        <v>1.983064647599588</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.898918255387923</v>
+        <v>4.034907993598084</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.983064647599588</v>
+        <v>2.153897506925473e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.034907993598084</v>
+        <v>191692090.0249933</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.153897506925473e-15</v>
+        <v>6.24983617888093e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>191692090.0249933</v>
+        <v>79.1468105966366</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>6.24983617888093e-07</v>
+        <v>0.0001736989110070338</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>79.1468105966366</v>
+        <v>12.30512044547054</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001736989110070338</v>
+        <v>1.045520442962588</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>12.30512044547054</v>
+        <v>0.026300792429191</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.045520442962588</v>
+        <v>2.742780911966758</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.026300792429191</v>
+        <v>0.9573670667319958</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.742780911966758</v>
+        <v>1.375180327866762</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9573670667319958</v>
+        <v>56</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.375180327866762</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.3784098132804558</v>
       </c>
     </row>
@@ -6606,72 +6528,66 @@
         <v>7.264967184553299e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.2747483507973229</v>
+        <v>2.803975469555151e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.297711925295551</v>
+        <v>4.612915518728024e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.803975469555151e-07</v>
+        <v>0.01072945770161275</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.612915518728024e-06</v>
+        <v>0.2203434738872559</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.01072945770161275</v>
+        <v>0.04862303806556646</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2203434738872559</v>
+        <v>1.892015051667815</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.04862303806556646</v>
+        <v>1.995886163674635</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.897487248271698</v>
+        <v>4.18848845824367</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.995886163674635</v>
+        <v>1.998838287681876e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.18848845824367</v>
+        <v>206053245.7619449</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.998838287681876e-15</v>
+        <v>5.821588185938436e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>206053245.7619449</v>
+        <v>84.86655626606138</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.821588185938436e-07</v>
+        <v>0.0001690864908290363</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>84.86655626606138</v>
+        <v>11.93484078691293</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001690864908290363</v>
+        <v>1.067819869969572</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>11.93484078691293</v>
+        <v>0.02408475154932702</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.067819869969572</v>
+        <v>2.81997267416227</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02408475154932702</v>
+        <v>0.9585654668331361</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.81997267416227</v>
+        <v>1.333504830198423</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9585654668331361</v>
+        <v>60</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.333504830198423</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.3913737090920191</v>
       </c>
     </row>
@@ -6686,72 +6602,66 @@
         <v>7.229302435731579e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.2527042827070853</v>
+        <v>2.504029496783461e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.358575350521607</v>
+        <v>4.613074290358127e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.504029496783461e-07</v>
+        <v>-0.006192906432923142</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.613074290358127e-06</v>
+        <v>0.1990481370947331</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.006192906432923142</v>
+        <v>0.0396180788140057</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1990481370947331</v>
+        <v>1.89479591907258</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.0396180788140057</v>
+        <v>1.995773832525573</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.902852477851217</v>
+        <v>4.337835543705763</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.995773832525573</v>
+        <v>1.863571842351049e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.337835543705763</v>
+        <v>229954586.3167846</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.863571842351049e-15</v>
+        <v>5.23845801663623e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>229954586.3167846</v>
+        <v>98.54402373960902</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>5.23845801663623e-07</v>
+        <v>0.0001584360958567921</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>98.54402373960902</v>
+        <v>9.963773382646808</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001584360958567921</v>
+        <v>1.212738684270664</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.963773382646808</v>
+        <v>0.01572902543571979</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.212738684270664</v>
+        <v>3.005347975905837</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01572902543571979</v>
+        <v>0.9577292317989654</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.005347975905837</v>
+        <v>1.336189548121598</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9577292317989654</v>
+        <v>68</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.336189548121598</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.4075360875627691</v>
       </c>
     </row>
@@ -6766,72 +6676,66 @@
         <v>7.403094197649915e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.3170480579518619</v>
+        <v>2.656651982453982e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.232414820053742</v>
+        <v>4.612063417860114e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.656651982453982e-07</v>
+        <v>-0.02076614177562969</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.612063417860114e-06</v>
+        <v>0.1744340992897875</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.02076614177562969</v>
+        <v>0.03083243144974335</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1744340992897875</v>
+        <v>1.89888814855784</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03083243144974335</v>
+        <v>1.946359799586674</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.906706584309789</v>
+        <v>4.500264004507228</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.946359799586674</v>
+        <v>1.535768348226624e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.500264004507228</v>
+        <v>278388785.6292346</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.535768348226624e-15</v>
+        <v>4.333029338130878e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>278388785.6292346</v>
+        <v>119.0225322352579</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.333029338130878e-07</v>
+        <v>0.0001484368424879679</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>119.0225322352579</v>
+        <v>8.430595555913047</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001484368424879679</v>
+        <v>1.362424983611527</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.430595555913047</v>
+        <v>0.01055013988549767</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.362424983611527</v>
+        <v>3.130849886388833</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01055013988549767</v>
+        <v>0.9571939682793636</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.130849886388833</v>
+        <v>1.364052260899964</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9571939682793636</v>
+        <v>68</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.364052260899964</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.4736189496498234</v>
       </c>
     </row>
@@ -6846,72 +6750,66 @@
         <v>7.695670213432628e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.3851352581405119</v>
+        <v>2.797528451761102e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.116855389909257</v>
+        <v>4.61006870890255e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.797528451761102e-07</v>
+        <v>-0.03133097343008903</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.61006870890255e-06</v>
+        <v>0.1547876780809955</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.03133097343008903</v>
+        <v>0.02492765846919083</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1547876780809955</v>
+        <v>1.9045796910196</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02492765846919083</v>
+        <v>2.028701725856669</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.911778301408586</v>
+        <v>4.174951398643826</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.028701725856669</v>
+        <v>1.318585025306591e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.174951398643826</v>
+        <v>324347238.6895314</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.318585025306591e-15</v>
+        <v>3.719426095195572e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>324347238.6895314</v>
+        <v>138.7166363056611</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.719426095195572e-07</v>
+        <v>0.0001331380247546389</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>138.7166363056611</v>
+        <v>7.953296784132111</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001331380247546389</v>
+        <v>1.429297244420464</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.953296784132111</v>
+        <v>0.008421636401109244</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.429297244420464</v>
+        <v>3.305381254819673</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.008421636401109244</v>
+        <v>0.9589273068989056</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.305381254819673</v>
+        <v>1.332604637465081</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9589273068989056</v>
+        <v>68</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.332604637465081</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.6394808830287508</v>
       </c>
     </row>
@@ -6926,72 +6824,66 @@
         <v>8.043257788294553e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.4325518798807117</v>
+        <v>2.924121840510304e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.035684152370249</v>
+        <v>4.607319221941608e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.924121840510304e-07</v>
+        <v>-0.03783877617729515</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.607319221941608e-06</v>
+        <v>0.1418666643796842</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.03783877617729515</v>
+        <v>0.0215530970725617</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1418666643796842</v>
+        <v>1.910347809919498</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.0215530970725617</v>
+        <v>2.184985327172392</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.915808981684549</v>
+        <v>3.864787064517577</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.184985327172392</v>
+        <v>1.232387254878314e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.864787064517577</v>
+        <v>346894089.1270074</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.232387254878314e-15</v>
+        <v>3.484616577077169e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>346894089.1270074</v>
+        <v>148.2999476887098</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.484616577077169e-07</v>
+        <v>0.0001087493731811607</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>148.2999476887098</v>
+        <v>9.52757510718477</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001087493731811607</v>
+        <v>1.360404849061195</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.52757510718477</v>
+        <v>0.009871690357972137</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.360404849061195</v>
+        <v>3.598025070259395</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.009871690357972137</v>
+        <v>0.9592077890131946</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.598025070259395</v>
+        <v>1.301117808274893</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9592077890131946</v>
+        <v>68</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.301117808274893</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>1.026467689728493</v>
       </c>
     </row>
@@ -7006,72 +6898,66 @@
         <v>8.411584405757066e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.461153505093714</v>
+        <v>3.031080571947579e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.9812393026788544</v>
+        <v>4.604045604893329e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>3.031080571947579e-07</v>
+        <v>-0.04138243104445967</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4.604045604893329e-06</v>
+        <v>0.1330124135568471</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.04138243104445967</v>
+        <v>0.01940252833886917</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1330124135568471</v>
+        <v>1.903725481794592</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01940252833886917</v>
+        <v>2.351733216449318</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.911330225532116</v>
+        <v>3.939779451336676</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.351733216449318</v>
+        <v>1.335882541321042e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.939779451336676</v>
+        <v>301225447.065474</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.335882541321042e-15</v>
+        <v>3.977619597668286e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>301225447.065474</v>
+        <v>121.2136668451533</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>3.977619597668286e-07</v>
+        <v>9.88060867745197e-05</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>121.2136668451533</v>
+        <v>12.61083416433093</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>9.88060867745197e-05</v>
+        <v>1.290527882152674</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>12.61083416433093</v>
+        <v>0.01571344206489542</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.290527882152674</v>
+        <v>3.890614210244909</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01571344206489542</v>
+        <v>0.9569303788106733</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.890614210244909</v>
+        <v>1.333934386905433</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9569303788106733</v>
+        <v>57</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.333934386905433</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>1.642289230002992</v>
       </c>
     </row>
@@ -7086,72 +6972,66 @@
         <v>8.782203894586168e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.4734694939022602</v>
+        <v>3.115245975362401e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.9531091619515846</v>
+        <v>4.60038262734536e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>3.115245975362401e-07</v>
+        <v>-0.04365413616348524</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>4.60038262734536e-06</v>
+        <v>0.125287895391306</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.04365413616348524</v>
+        <v>0.0176013191183193</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.125287895391306</v>
+        <v>1.907273227717211</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.0176013191183193</v>
+        <v>2.103855182806142</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.923072495848455</v>
+        <v>3.936338183194001</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.103855182806142</v>
+        <v>1.338219301677563e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.936338183194001</v>
+        <v>298421916.8320689</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.338219301677563e-15</v>
+        <v>4.018023431850719e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>298421916.8320689</v>
+        <v>119.1759769677279</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>4.018023431850719e-07</v>
+        <v>8.586268791794234e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>119.1759769677279</v>
+        <v>11.14273553121666</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>8.586268791794234e-05</v>
+        <v>1.287552082956218</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>11.14273553121666</v>
+        <v>0.01066075899587011</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.287552082956218</v>
+        <v>4.149094588452906</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01066075899587011</v>
+        <v>0.9573978792692787</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>4.149094588452906</v>
+        <v>1.22576745199224</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9573978792692787</v>
+        <v>57</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.22576745199224</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>2.059376561646121</v>
       </c>
     </row>
@@ -7166,72 +7046,66 @@
         <v>9.142748314358436e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.4714210910858607</v>
+        <v>3.187007146629293e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.9490163462171757</v>
+        <v>4.596400203918386e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>3.187007146629293e-07</v>
+        <v>-0.04500706850952677</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>4.596400203918386e-06</v>
+        <v>0.1188525338583481</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.04500706850952677</v>
+        <v>0.0161510453081634</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1188525338583481</v>
+        <v>1.906657970684132</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.0161510453081634</v>
+        <v>2.107653231799628</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.923593779018833</v>
+        <v>4.465975020562744</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.107653231799628</v>
+        <v>8.305888060499908e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.465975020562744</v>
+        <v>482842894.2078443</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>8.305888060499908e-16</v>
+        <v>2.48610413617721e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>482842894.2078443</v>
+        <v>193.6411988336692</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>2.48610413617721e-07</v>
+        <v>0.000122576165720457</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>193.6411988336692</v>
+        <v>11.21652533855865</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.000122576165720457</v>
+        <v>1.09275222084869</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>11.21652533855865</v>
+        <v>0.01542136142499438</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.09275222084869</v>
+        <v>3.765923426926554</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01542136142499438</v>
+        <v>0.9579938651821607</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.765923426926554</v>
+        <v>1.220987321232826</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9579938651821607</v>
+        <v>66</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.220987321232826</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>1.965388154918646</v>
       </c>
     </row>
@@ -7246,72 +7120,66 @@
         <v>9.493995306111719e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.4606290376301449</v>
+        <v>3.270707007220166e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.9587953906430404</v>
+        <v>4.592174200910697e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>3.270707007220166e-07</v>
+        <v>-0.04565343808499709</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>4.592174200910697e-06</v>
+        <v>0.1139339291017955</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.04565343808499709</v>
+        <v>0.01506473845295848</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1139339291017955</v>
+        <v>1.9057678984527</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01506473845295848</v>
+        <v>2.279644369732046</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.926354146610626</v>
+        <v>4.627129259538657</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.279644369732046</v>
+        <v>4.833247500608961e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.627129259538657</v>
+        <v>852909864.9548233</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>4.833247500608961e-16</v>
+        <v>1.407766066072665e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>852909864.9548233</v>
+        <v>351.5971209598484</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.407766066072665e-07</v>
+        <v>0.0001517648165343792</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>351.5971209598484</v>
+        <v>11.89029710200592</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001517648165343792</v>
+        <v>1.083064483589923</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>11.89029710200592</v>
+        <v>0.02145638306441131</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.083064483589923</v>
+        <v>3.644307239494768</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.02145638306441131</v>
+        <v>0.9580234824249207</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.644307239494768</v>
+        <v>1.218058427941648</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9580234824249207</v>
+        <v>66</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.218058427941648</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>2.178719026056693</v>
       </c>
     </row>
@@ -7326,72 +7194,66 @@
         <v>9.840044471893494e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.4451987600492027</v>
+        <v>3.358872524814132e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.9738479364406443</v>
+        <v>4.587726996765861e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>3.358872524814132e-07</v>
+        <v>-0.04632218873813474</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>4.587726996765861e-06</v>
+        <v>0.1094326440638637</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.04632218873813474</v>
+        <v>0.01412092626968702</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1094326440638637</v>
+        <v>1.908426936424415</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.01412092626968702</v>
+        <v>2.744475057944348</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.929820040291809</v>
+        <v>4.685371911606757</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.744475057944348</v>
+        <v>3.867193834547599e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.685371911606757</v>
+        <v>1057842149.556183</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>3.867193834547599e-16</v>
+        <v>1.134956457963122e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>1057842149.556183</v>
+        <v>432.7505968407751</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.134956457963122e-07</v>
+        <v>0.0001372868123840005</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>432.7505968407751</v>
+        <v>11.60585740816211</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001372868123840005</v>
+        <v>1.122812426590885</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>11.60585740816211</v>
+        <v>0.01849197434616943</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.122812426590885</v>
+        <v>4.006497097414385</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01849197434616943</v>
+        <v>0.958906466305309</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>4.006497097414385</v>
+        <v>1.184805568707306</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.958906466305309</v>
+        <v>83</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.184805568707306</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>2.644280002879278</v>
       </c>
     </row>
@@ -7406,72 +7268,66 @@
         <v>1.017844909588397e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.4258166542288805</v>
+        <v>3.435486296980622e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.9927150858781206</v>
+        <v>4.583069789689017e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>3.435486296980622e-07</v>
+        <v>-0.04667870133511653</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4.583069789689017e-06</v>
+        <v>0.1053032138947457</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.04667870133511653</v>
+        <v>0.01326753993241028</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1053032138947457</v>
+        <v>1.908665384199909</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01326753993241028</v>
+        <v>2.456705241855848</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.93207920915226</v>
+        <v>4.774684867814749</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.456705241855848</v>
+        <v>3.723871220075014e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.774684867814749</v>
+        <v>1109422744.43264</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.723871220075014e-16</v>
+        <v>1.083887715121037e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>1109422744.43264</v>
+        <v>458.3410802763146</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.083887715121037e-07</v>
+        <v>9.983368346884637e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>458.3410802763146</v>
+        <v>9.006110788374507</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>9.983368346884637e-05</v>
+        <v>1.218971012346186</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.006110788374507</v>
+        <v>0.008097513214161326</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.218971012346186</v>
+        <v>4.350821221116213</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.008097513214161326</v>
+        <v>0.9592637564865547</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>4.350821221116213</v>
+        <v>1.116327985526383</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9592637564865547</v>
+        <v>83</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.116327985526383</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>2.681863815086569</v>
       </c>
     </row>
@@ -7486,72 +7342,66 @@
         <v>1.050036598067397e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.4013946935745052</v>
+        <v>3.486207674528755e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.017221682990108</v>
+        <v>4.578218100419385e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3.486207674528755e-07</v>
+        <v>-0.04722481166089385</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>4.578218100419385e-06</v>
+        <v>0.1009395845796855</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.04722481166089385</v>
+        <v>0.01241849503325419</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1009395845796855</v>
+        <v>1.915486972941018</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01241849503325419</v>
+        <v>2.381244696130534</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.93572458110572</v>
+        <v>5.837809662915268</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.381244696130534</v>
+        <v>2.390938486927666e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>5.837809662915268</v>
+        <v>1778801643.030267</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.390938486927666e-16</v>
+        <v>6.783564824522651e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>1778801643.030267</v>
+        <v>756.5252831343325</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>6.783564824522651e-08</v>
+        <v>9.557351694975548e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>756.5252831343325</v>
+        <v>7.827086053619643</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>9.557351694975548e-05</v>
+        <v>1.274764358205893</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>7.827086053619643</v>
+        <v>0.005855146755858481</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.274764358205893</v>
+        <v>4.201665286380637</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.005855146755858481</v>
+        <v>0.9600041961311027</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>4.201665286380637</v>
+        <v>1.103750130520999</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9600041961311027</v>
+        <v>83</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.103750130520999</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>2.35919744807334</v>
       </c>
     </row>
@@ -7928,7 +7778,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.246810505998797</v>
+        <v>1.24935178195351</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.560777750249983</v>
@@ -8017,7 +7867,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.252646049390677</v>
+        <v>1.255333109103597</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.547451938875228</v>
@@ -8106,7 +7956,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.301982163921988</v>
+        <v>1.303795971584017</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.476536771745623</v>
@@ -8195,7 +8045,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.380692673592438</v>
+        <v>1.39596093572527</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.875507558230589</v>
@@ -8284,7 +8134,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.389551484356383</v>
+        <v>1.405550382830369</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.975908231812083</v>
@@ -8373,7 +8223,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.39822498145514</v>
+        <v>1.414041458137523</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.989977102362758</v>
@@ -8462,7 +8312,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.403502757758181</v>
+        <v>1.416955987050851</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.998801359446036</v>
@@ -8551,7 +8401,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.409197037992798</v>
+        <v>1.421511932664023</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.99295805890692</v>
@@ -8640,7 +8490,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.413655898325246</v>
+        <v>1.425587578006186</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.085253730848025</v>
@@ -8729,7 +8579,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.45223411216964</v>
+        <v>1.458238520217659</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.002311706038005</v>
@@ -8818,7 +8668,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.528600270273128</v>
+        <v>1.53979738542</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.273434370010126</v>
@@ -8907,7 +8757,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.587168029366341</v>
+        <v>1.594842312192967</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.111355669042787</v>
@@ -8996,7 +8846,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.606021691148709</v>
+        <v>1.612750078820258</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.173644237517494</v>
@@ -9085,7 +8935,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.598094745121257</v>
+        <v>1.605175585538075</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.184454903767019</v>
@@ -9174,7 +9024,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.59609923101155</v>
+        <v>1.601949763406951</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.239096330590502</v>
@@ -9263,7 +9113,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.596714731984944</v>
+        <v>1.604376743781804</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.22582406398706</v>
@@ -9352,7 +9202,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.627441324243944</v>
+        <v>1.632859490117543</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.232133564782078</v>
@@ -9441,7 +9291,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.630817939149367</v>
+        <v>1.636430284739898</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.276030602402273</v>
@@ -9530,7 +9380,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.626719304181888</v>
+        <v>1.632388370710447</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.206280032069773</v>
@@ -9619,7 +9469,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.620206345639282</v>
+        <v>1.625802403824534</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.269163353962604</v>
@@ -9708,7 +9558,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.620557374119915</v>
+        <v>1.622449895909878</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.174421734407149</v>
@@ -9797,7 +9647,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.619161019201253</v>
+        <v>1.626934386412088</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.186121333392027</v>
@@ -9886,7 +9736,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.614012901501733</v>
+        <v>1.624783908785486</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.269511897333791</v>
@@ -9975,7 +9825,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.612656361394805</v>
+        <v>1.61958061924562</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.194251918870298</v>
@@ -10064,7 +9914,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.620745630362398</v>
+        <v>1.633261759009139</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.924605995385643</v>
@@ -10153,7 +10003,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.614129767927366</v>
+        <v>1.628846120973634</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.149647120562746</v>
@@ -10242,7 +10092,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.610858940592487</v>
+        <v>1.625894365226359</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.408533099708867</v>
@@ -10331,7 +10181,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.612155239397123</v>
+        <v>1.623701156361244</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.340479303325462</v>
@@ -10420,7 +10270,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.626911222057178</v>
+        <v>1.639529405835325</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.528794334577252</v>
@@ -10509,7 +10359,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.63216116258768</v>
+        <v>1.641491368656377</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.834966115378629</v>
@@ -10598,7 +10448,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.631815298514084</v>
+        <v>1.640410077751103</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.292622268096836</v>
@@ -10687,7 +10537,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.631739980114212</v>
+        <v>1.639990983015879</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.266979727098538</v>
@@ -10776,7 +10626,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.638997002233925</v>
+        <v>1.64207770766824</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.45843426131658</v>
@@ -10865,7 +10715,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.643490477401526</v>
+        <v>1.649205544616853</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.404839748174605</v>
@@ -10954,7 +10804,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.653986608286113</v>
+        <v>1.656419291343697</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.355839658664888</v>
@@ -11043,7 +10893,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.652357674531276</v>
+        <v>1.659118105009072</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.34885384416466</v>
@@ -11132,7 +10982,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.657246741140076</v>
+        <v>1.661748586752602</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.496539633695187</v>
@@ -11221,7 +11071,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.665702945077955</v>
+        <v>1.664116249762406</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.646478509276515</v>
@@ -11310,7 +11160,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.656715210856384</v>
+        <v>1.657011668079425</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.462478005745825</v>
@@ -11399,7 +11249,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.654271006690948</v>
+        <v>1.657024301250558</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.437643177394092</v>
@@ -11488,7 +11338,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.660519495438475</v>
+        <v>1.658906929089338</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.274805839970468</v>
@@ -11577,7 +11427,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.662941788608904</v>
+        <v>1.664244074615242</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.461834160894726</v>
@@ -11666,7 +11516,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.667308190781417</v>
+        <v>1.669811035188548</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.226243690299793</v>
@@ -11755,7 +11605,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.659868411927062</v>
+        <v>1.660230028925027</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.786198171524066</v>
@@ -11844,7 +11694,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.656442088867037</v>
+        <v>1.657800014778211</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.53530080634659</v>
@@ -11933,7 +11783,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.652332059363796</v>
+        <v>1.658308678685226</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.250996376539483</v>
@@ -12022,7 +11872,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.640116018109072</v>
+        <v>1.637261487692478</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.730476016969172</v>
@@ -12111,7 +11961,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.573967485432424</v>
+        <v>1.583781591200748</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.311722488429958</v>
@@ -12200,7 +12050,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.573526074601489</v>
+        <v>1.577608663061058</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.304835431651936</v>
@@ -12289,7 +12139,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.531284345367991</v>
+        <v>1.538562903182595</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.31726664387431</v>
@@ -12378,7 +12228,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.524861279766891</v>
+        <v>1.529232421943322</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.199824500487146</v>
@@ -12467,7 +12317,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.516501344675034</v>
+        <v>1.519152780788458</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.195682359585586</v>
@@ -12556,7 +12406,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.519076680716471</v>
+        <v>1.52442404877367</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.124415420750285</v>
@@ -12645,7 +12495,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.518879838187261</v>
+        <v>1.521581841517504</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.220666990186536</v>
@@ -12734,7 +12584,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.506268107571973</v>
+        <v>1.510559186001972</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.18747053382567</v>
@@ -12823,7 +12673,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.505884401863818</v>
+        <v>1.509758853729663</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.257622826992129</v>
@@ -12912,7 +12762,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.508629236006696</v>
+        <v>1.51282879760209</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.21210894476876</v>
@@ -13001,7 +12851,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.483276594988895</v>
+        <v>1.486653886333478</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.119024418948535</v>
@@ -13090,7 +12940,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.464159472237351</v>
+        <v>1.471845632269839</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.232221250509046</v>
@@ -13179,7 +13029,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.464914956594185</v>
+        <v>1.470632037814964</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.15749575567004</v>
@@ -13268,7 +13118,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.471105096456738</v>
+        <v>1.477804739799443</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.198022820014125</v>
@@ -13357,7 +13207,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.478096796638887</v>
+        <v>1.484033416277733</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.13828611008178</v>
@@ -13446,7 +13296,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.47729263798388</v>
+        <v>1.484024736352192</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.263574235866952</v>
@@ -13535,7 +13385,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.478728437527656</v>
+        <v>1.489113867780391</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.30406900188104</v>
@@ -13624,7 +13474,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.5191721923607</v>
+        <v>1.526471165749135</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.265402098806823</v>
@@ -13713,7 +13563,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.524218528222005</v>
+        <v>1.534756186456662</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.331878622676941</v>
@@ -13802,7 +13652,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.517094145830437</v>
+        <v>1.529328012009425</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.307830665938243</v>
@@ -13891,7 +13741,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.509361063738911</v>
+        <v>1.522782153719778</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.284821201041977</v>
@@ -14177,7 +14027,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.251188299407117</v>
+        <v>1.227864611810293</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.468115966697897</v>
@@ -14266,7 +14116,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.255468439879088</v>
+        <v>1.233028660838914</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.466796919096116</v>
@@ -14355,7 +14205,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.264634334959194</v>
+        <v>1.241461817209926</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.45325992121541</v>
@@ -14444,7 +14294,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.269060202781453</v>
+        <v>1.244907742672535</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.467840850173228</v>
@@ -14533,7 +14383,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.272554715335214</v>
+        <v>1.248429018770016</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.454265987960786</v>
@@ -14622,7 +14472,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.269584024811664</v>
+        <v>1.243541939047341</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.4464167606453</v>
@@ -14711,7 +14561,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.275061082832242</v>
+        <v>1.248960423067834</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.446465570631444</v>
@@ -14800,7 +14650,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.272729380563669</v>
+        <v>1.248386925040397</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.444715581121552</v>
@@ -14889,7 +14739,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.270324428530727</v>
+        <v>1.243849364696092</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.437454316571798</v>
@@ -14978,7 +14828,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.278832954304786</v>
+        <v>1.251237095300283</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.437833913976587</v>
@@ -15067,7 +14917,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.535056432563811</v>
+        <v>1.523607962681759</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.838919690910781</v>
@@ -15156,7 +15006,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.595280985581358</v>
+        <v>1.572552653860428</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.573199625953183</v>
@@ -15245,7 +15095,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.609622087883745</v>
+        <v>1.584035523913015</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.503062184477976</v>
@@ -15334,7 +15184,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.576937879639185</v>
+        <v>1.563906385068611</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.5612354615759</v>
@@ -15423,7 +15273,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.571622329994904</v>
+        <v>1.558941794568375</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.496530997199257</v>
@@ -15512,7 +15362,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.582067978830234</v>
+        <v>1.567661844748435</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.43615756298015</v>
@@ -15601,7 +15451,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.607437105916875</v>
+        <v>1.590214200585249</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.471064992799269</v>
@@ -15690,7 +15540,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.599224875435035</v>
+        <v>1.582178878275982</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.267996146983761</v>
@@ -15779,7 +15629,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.614416987721354</v>
+        <v>1.595556203208387</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.684462195762207</v>
@@ -15868,7 +15718,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.593039767862816</v>
+        <v>1.574749922496002</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.640059773956344</v>
@@ -15957,7 +15807,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.598230525072523</v>
+        <v>1.5852648286866</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.517100288877047</v>
@@ -16046,7 +15896,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.592624731798612</v>
+        <v>1.578829781652813</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.606253280929204</v>
@@ -16135,7 +15985,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.588657735624051</v>
+        <v>1.572188807002209</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.687637006808353</v>
@@ -16224,7 +16074,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.589833637633568</v>
+        <v>1.577303766735376</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.656147451898933</v>
@@ -16313,7 +16163,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.586124115764757</v>
+        <v>1.572137271270445</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.564747364832747</v>
@@ -16402,7 +16252,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.579920333466797</v>
+        <v>1.569332546468031</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.693626853651844</v>
@@ -16491,7 +16341,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.590021301628683</v>
+        <v>1.577070867367367</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.607699564081575</v>
@@ -16580,7 +16430,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.596236157576288</v>
+        <v>1.581937608844754</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.558866970695553</v>
@@ -16669,7 +16519,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.622112957799121</v>
+        <v>1.604105810997424</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.699898494955748</v>
@@ -16758,7 +16608,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.613623962219802</v>
+        <v>1.596668329835508</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.77629649778439</v>
@@ -16847,7 +16697,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.615085495476414</v>
+        <v>1.595558050153942</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.76835193591723</v>
@@ -16936,7 +16786,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.619331949934133</v>
+        <v>1.600726917329548</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.740755297626636</v>
@@ -17025,7 +16875,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.635355362274724</v>
+        <v>1.615820726294531</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.740174232917227</v>
@@ -17114,7 +16964,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.643444661132442</v>
+        <v>1.625206550434636</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.593672781582202</v>
@@ -17203,7 +17053,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.659333708833807</v>
+        <v>1.637039357674239</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.619523898201018</v>
@@ -17292,7 +17142,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.628407562389218</v>
+        <v>1.614505657006042</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.591281931965293</v>
@@ -17381,7 +17231,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.612017979835737</v>
+        <v>1.598869237422917</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.663342227035858</v>
@@ -17470,7 +17320,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.594066214943308</v>
+        <v>1.584649863461805</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.465110237699665</v>
@@ -17559,7 +17409,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.562582296685323</v>
+        <v>1.56481004059618</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.528636179440658</v>
@@ -17648,7 +17498,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.553110609170921</v>
+        <v>1.558539325294941</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.577857607588649</v>
@@ -17737,7 +17587,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.550384675091611</v>
+        <v>1.555328407440613</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.59837157427763</v>
@@ -17826,7 +17676,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.550628201565416</v>
+        <v>1.555497373401992</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.541058593240456</v>
@@ -17915,7 +17765,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.543366517405828</v>
+        <v>1.551345229659011</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.648544934235129</v>
@@ -18004,7 +17854,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.545457682296452</v>
+        <v>1.557163228190298</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.592748361589902</v>
@@ -18093,7 +17943,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.552630983086857</v>
+        <v>1.559958564247656</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.592341320967231</v>
@@ -18182,7 +18032,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.549543821225065</v>
+        <v>1.558641564770709</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.625963823802296</v>
@@ -18271,7 +18121,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.544894780721796</v>
+        <v>1.547576064419563</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.612919591802531</v>
@@ -18360,7 +18210,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.519350419797476</v>
+        <v>1.524435630435924</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.483458008577005</v>
@@ -18449,7 +18299,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.502673374173788</v>
+        <v>1.507103369381408</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.52820498659176</v>
@@ -18538,7 +18388,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.493275757828925</v>
+        <v>1.498938119675922</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.562750999514634</v>
@@ -18627,7 +18477,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.498438752051982</v>
+        <v>1.500231093312824</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.71528595397685</v>
@@ -18716,7 +18566,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.518349203015019</v>
+        <v>1.512978250306195</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.321423185148855</v>
@@ -18805,7 +18655,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.545205682020355</v>
+        <v>1.535642711601227</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.306495297215153</v>
@@ -18894,7 +18744,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.56486378908392</v>
+        <v>1.550948324685897</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.50243956010258</v>
@@ -18983,7 +18833,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.57509424410892</v>
+        <v>1.560359136438827</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.568285221070036</v>
@@ -19072,7 +18922,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.575556818076355</v>
+        <v>1.558531065658403</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.621463842136219</v>
@@ -19161,7 +19011,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.57639989278776</v>
+        <v>1.559894057368874</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.499637733674645</v>
@@ -19250,7 +19100,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.569436744058339</v>
+        <v>1.551822673673473</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.395148408318617</v>
@@ -19339,7 +19189,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.543475012370005</v>
+        <v>1.531390537189403</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.448758844165821</v>
@@ -19428,7 +19278,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.537009493352769</v>
+        <v>1.515848181141566</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.467205411431128</v>
@@ -19517,7 +19367,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.51367598454954</v>
+        <v>1.500095185559748</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.564013869252063</v>
@@ -19606,7 +19456,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.518284954905758</v>
+        <v>1.505855000219804</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.51203251532299</v>
@@ -19695,7 +19545,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.520139834740049</v>
+        <v>1.509752351024619</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.520744217343352</v>
@@ -19784,7 +19634,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.541748064359522</v>
+        <v>1.527480454224594</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.515965132112408</v>
@@ -19873,7 +19723,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.575627760500309</v>
+        <v>1.55840148843714</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.531600865947611</v>
@@ -19962,7 +19812,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.574488847440072</v>
+        <v>1.556882205657612</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.528298498887479</v>
@@ -20051,7 +19901,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.549416421405941</v>
+        <v>1.54129704417549</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.454030739795828</v>
@@ -20140,7 +19990,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.559208807684415</v>
+        <v>1.54924816339759</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.519425055355368</v>
@@ -20426,7 +20276,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.38499412934759</v>
+        <v>1.379140464411011</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.933104878053333</v>
@@ -20515,7 +20365,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.362434639715847</v>
+        <v>1.358146584183952</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.936913576405203</v>
@@ -20604,7 +20454,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.358497623062614</v>
+        <v>1.352593270812898</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.987058351064692</v>
@@ -20693,7 +20543,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.36508135346432</v>
+        <v>1.361198163964097</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.97988804293751</v>
@@ -20782,7 +20632,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.347549770147472</v>
+        <v>1.340869013721105</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.899737778146641</v>
@@ -20871,7 +20721,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.35024482598837</v>
+        <v>1.347601283597024</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.933226298849139</v>
@@ -20960,7 +20810,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.350191140571454</v>
+        <v>1.3490324823245</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.916095170659409</v>
@@ -21049,7 +20899,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.347730044816286</v>
+        <v>1.348813092889557</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.925003818791633</v>
@@ -21138,7 +20988,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.341845350498799</v>
+        <v>1.343811806195562</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.968017086073308</v>
@@ -21227,7 +21077,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.34837075873451</v>
+        <v>1.349825903743542</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.927003419380703</v>
@@ -21316,7 +21166,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.400817252047382</v>
+        <v>1.412280567838976</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.373016472825866</v>
@@ -21405,7 +21255,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.399696454862988</v>
+        <v>1.405946361728255</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.247663103461801</v>
@@ -21494,7 +21344,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.412960161318021</v>
+        <v>1.417627920110577</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.055929084022399</v>
@@ -21583,7 +21433,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.404480242472072</v>
+        <v>1.410361274062045</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.310756539217943</v>
@@ -21672,7 +21522,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.385435801667352</v>
+        <v>1.395716739094598</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.37736953422749</v>
@@ -21761,7 +21611,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.396551163743135</v>
+        <v>1.4099376495894</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.45764740410366</v>
@@ -21850,7 +21700,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.413836885688871</v>
+        <v>1.422386560653039</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.357091740078816</v>
@@ -21939,7 +21789,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.412926070409778</v>
+        <v>1.42668889173447</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.32363043922219</v>
@@ -22028,7 +21878,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.41496392370712</v>
+        <v>1.427147160174068</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.397146970755434</v>
@@ -22117,7 +21967,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.448371069066236</v>
+        <v>1.459486772732146</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.327131362855754</v>
@@ -22206,7 +22056,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.455734460038435</v>
+        <v>1.464561187940214</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.296407998693948</v>
@@ -22295,7 +22145,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.451659412210706</v>
+        <v>1.460206614107526</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.329020855118991</v>
@@ -22384,7 +22234,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.45350456819406</v>
+        <v>1.461598230621868</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.389462251375156</v>
@@ -22473,7 +22323,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.437604419632018</v>
+        <v>1.442043668009199</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.362844086358601</v>
@@ -22562,7 +22412,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.426686770187556</v>
+        <v>1.432599661567939</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.330628729508966</v>
@@ -22651,7 +22501,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.395764295660004</v>
+        <v>1.404615357971585</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.40714313684679</v>
@@ -22740,7 +22590,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.400114196686416</v>
+        <v>1.412681316426498</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.368687044530103</v>
@@ -22829,7 +22679,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.407530681326721</v>
+        <v>1.419585855777687</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.402140801830849</v>
@@ -22918,7 +22768,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.412492288295185</v>
+        <v>1.426565140923824</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.414102411394118</v>
@@ -23007,7 +22857,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.422674175641014</v>
+        <v>1.43257801608038</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.409512407941297</v>
@@ -23096,7 +22946,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.431405524805601</v>
+        <v>1.437272034755579</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.480208456062769</v>
@@ -23185,7 +23035,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.436723417847824</v>
+        <v>1.447992506896395</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.373099993082962</v>
@@ -23274,7 +23124,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.446328302573719</v>
+        <v>1.456237933173899</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.547683985684326</v>
@@ -23363,7 +23213,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.444895133912484</v>
+        <v>1.45399088066948</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.45997893636517</v>
@@ -23452,7 +23302,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.445775749219831</v>
+        <v>1.455567948347345</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.496684243666357</v>
@@ -23541,7 +23391,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.442548699028586</v>
+        <v>1.453469507443069</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.471617776449863</v>
@@ -23630,7 +23480,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.447862225425953</v>
+        <v>1.460439240311728</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.558151684529887</v>
@@ -23719,7 +23569,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.449370656540275</v>
+        <v>1.460447809457253</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.506423240201275</v>
@@ -23808,7 +23658,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.471978439395297</v>
+        <v>1.481848649515961</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.552140570752775</v>
@@ -23897,7 +23747,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.484649766681426</v>
+        <v>1.493025525164876</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.147261539166139</v>
@@ -23986,7 +23836,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.52090580786066</v>
+        <v>1.530728497667333</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.692873364072985</v>
@@ -24075,7 +23925,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.525418204093736</v>
+        <v>1.533764283853598</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.645557993537287</v>
@@ -24164,7 +24014,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.528282161664972</v>
+        <v>1.541108629883692</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.672896631764029</v>
@@ -24253,7 +24103,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.5513352945753</v>
+        <v>1.558513370653738</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.76091809993942</v>
@@ -24342,7 +24192,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.557710333531651</v>
+        <v>1.566526705724743</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.814597992444165</v>
@@ -24431,7 +24281,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.55523352250313</v>
+        <v>1.560674629369114</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.397442725456296</v>
@@ -24520,7 +24370,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.560295871316115</v>
+        <v>1.566019152609141</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.316077975550239</v>
@@ -24609,7 +24459,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.541042761064235</v>
+        <v>1.551820207433557</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.448480858208153</v>
@@ -24698,7 +24548,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.531443195385936</v>
+        <v>1.545474623194223</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.913993116305905</v>
@@ -24787,7 +24637,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.532306730645079</v>
+        <v>1.545311603043971</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.946578474143348</v>
@@ -24876,7 +24726,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.518230329743399</v>
+        <v>1.534430249849812</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.776890305093346</v>
@@ -24965,7 +24815,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.517867969223079</v>
+        <v>1.53192508406522</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.593500284711809</v>
@@ -25054,7 +24904,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.514963404894172</v>
+        <v>1.527636266375842</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.713380375816638</v>
@@ -25143,7 +24993,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.521165213685225</v>
+        <v>1.530646086820294</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.566086902988884</v>
@@ -25232,7 +25082,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.501430960349833</v>
+        <v>1.514709092396637</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.778006895421683</v>
@@ -25321,7 +25171,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.50390020793123</v>
+        <v>1.512741981929936</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.47764464293329</v>
@@ -25410,7 +25260,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.506678045449436</v>
+        <v>1.515080645893855</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.642706908081582</v>
@@ -25499,7 +25349,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.503105966499331</v>
+        <v>1.511145680792015</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.529897133983665</v>
@@ -25588,7 +25438,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.487752048369297</v>
+        <v>1.50107127293184</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.532397693566447</v>
@@ -25677,7 +25527,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.479770027396726</v>
+        <v>1.490801223313585</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.603470585821179</v>
@@ -25766,7 +25616,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.472181403674461</v>
+        <v>1.483180253689868</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.648571592988179</v>
@@ -25855,7 +25705,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.468971978804198</v>
+        <v>1.476446151411562</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.586601179089876</v>
@@ -25944,7 +25794,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.469609540149487</v>
+        <v>1.476143531976762</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.519869707967467</v>
@@ -26033,7 +25883,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.480751123168577</v>
+        <v>1.486111085289271</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.631486946300696</v>
@@ -26122,7 +25972,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.502572352100344</v>
+        <v>1.501745839588271</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.346647276090866</v>
@@ -26211,7 +26061,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.506120186387646</v>
+        <v>1.509419113139245</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.652603130393197</v>
@@ -26300,7 +26150,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.491447733166417</v>
+        <v>1.499798213523369</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.362009667790897</v>
@@ -26389,7 +26239,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.492375954735963</v>
+        <v>1.500940499584295</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.535735626838183</v>
@@ -26675,7 +26525,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.230368026557489</v>
+        <v>1.218678957472577</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.55909905297993</v>
@@ -26764,7 +26614,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.184111341156155</v>
+        <v>1.169697776162882</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.633011307143625</v>
@@ -26853,7 +26703,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.176011222788659</v>
+        <v>1.162321986620948</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.637514787300999</v>
@@ -26942,7 +26792,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.177805863625394</v>
+        <v>1.167732176507966</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.633215589591749</v>
@@ -27031,7 +26881,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.176196199014084</v>
+        <v>1.163814231618476</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.616022401582623</v>
@@ -27120,7 +26970,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.177237636479201</v>
+        <v>1.163440830576869</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.61598603544357</v>
@@ -27209,7 +27059,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.175678862823779</v>
+        <v>1.160837498019066</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.621998699471995</v>
@@ -27298,7 +27148,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.176349086341957</v>
+        <v>1.162343460659422</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.622663836520532</v>
@@ -27387,7 +27237,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.17206631671085</v>
+        <v>1.157870860352571</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.625116471466621</v>
@@ -27476,7 +27326,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.1984991984447</v>
+        <v>1.183134381107241</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.623110350226181</v>
@@ -27565,7 +27415,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.237863341666958</v>
+        <v>1.231286745191414</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.533639934615862</v>
@@ -27654,7 +27504,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.22582262955488</v>
+        <v>1.216421898023047</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.525713949765235</v>
@@ -27743,7 +27593,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.226740966556046</v>
+        <v>1.216632438504486</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.522868232909663</v>
@@ -27832,7 +27682,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.224890547512824</v>
+        <v>1.216109926681079</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.520030643365619</v>
@@ -27921,7 +27771,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.214167497143511</v>
+        <v>1.204529273502173</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.534800154947969</v>
@@ -28010,7 +27860,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.230035964584381</v>
+        <v>1.222757709303909</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.472664454395815</v>
@@ -28099,7 +27949,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.333665006470944</v>
+        <v>1.335533938035795</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.057588295458295</v>
@@ -28188,7 +28038,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.337256138096704</v>
+        <v>1.339369167575681</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.016451096341252</v>
@@ -28277,7 +28127,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.340475669731744</v>
+        <v>1.334647257154546</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.041973639923333</v>
@@ -28366,7 +28216,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.322069915508065</v>
+        <v>1.313427697104312</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.023398404960305</v>
@@ -28455,7 +28305,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.336617421703813</v>
+        <v>1.330059509571694</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.038634055343411</v>
@@ -28544,7 +28394,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.345767896700827</v>
+        <v>1.338731001907939</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.996824816882999</v>
@@ -28633,7 +28483,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.349717997719137</v>
+        <v>1.343526763622858</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.035226718644505</v>
@@ -28722,7 +28572,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.353312386904721</v>
+        <v>1.348307482445519</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.021588204732487</v>
@@ -28811,7 +28661,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.373178833806425</v>
+        <v>1.370060491771155</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.793718904718989</v>
@@ -28900,7 +28750,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.394323773280077</v>
+        <v>1.387057335676144</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.970977857588481</v>
@@ -28989,7 +28839,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.432371506726046</v>
+        <v>1.426707202256736</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.982652542618823</v>
@@ -29078,7 +28928,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.41469673167536</v>
+        <v>1.405637059313913</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.982549595546789</v>
@@ -29167,7 +29017,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.366756346039096</v>
+        <v>1.36031750544117</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.003149888262628</v>
@@ -29256,7 +29106,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.409871070182087</v>
+        <v>1.402621393749305</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.902387400734239</v>
@@ -29345,7 +29195,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.413794981718494</v>
+        <v>1.407257292825348</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.027643471431313</v>
@@ -29434,7 +29284,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.407385417126785</v>
+        <v>1.401550546847995</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.051594960166941</v>
@@ -29523,7 +29373,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.422246702963301</v>
+        <v>1.4122046847119</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.023345531697929</v>
@@ -29612,7 +29462,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.426797579151602</v>
+        <v>1.429285130946308</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.039144147749943</v>
@@ -29701,7 +29551,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.502293504613217</v>
+        <v>1.497025352394625</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.953460785180132</v>
@@ -29790,7 +29640,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.520007723465405</v>
+        <v>1.515172294365047</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.088935320128738</v>
@@ -29879,7 +29729,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.524276066074579</v>
+        <v>1.518972750951341</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.127209363270838</v>
@@ -29968,7 +29818,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.52122040084415</v>
+        <v>1.513158229233666</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.119745808586417</v>
@@ -30057,7 +29907,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.514050963624095</v>
+        <v>1.504498149481841</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.10089749618052</v>
@@ -30146,7 +29996,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.503265248152054</v>
+        <v>1.497888756290878</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.110550031327479</v>
@@ -30235,7 +30085,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.494010546641935</v>
+        <v>1.489569144439415</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.18147802504004</v>
@@ -30324,7 +30174,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.508780815377871</v>
+        <v>1.503346656631497</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.111166398753207</v>
@@ -30413,7 +30263,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.535488421406283</v>
+        <v>1.526341746738743</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.071006536965604</v>
@@ -30502,7 +30352,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.618396561902079</v>
+        <v>1.596965209069507</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.865529186394268</v>
@@ -30591,7 +30441,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.629749879386531</v>
+        <v>1.606284982930981</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.75425357935887</v>
@@ -30680,7 +30530,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.625264051647894</v>
+        <v>1.599285438246451</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.736961683346471</v>
@@ -30769,7 +30619,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.633566525164492</v>
+        <v>1.609235110781215</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.872171834769147</v>
@@ -30858,7 +30708,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.632999940645649</v>
+        <v>1.611285138706031</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.619583628097347</v>
@@ -30947,7 +30797,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.633676991455402</v>
+        <v>1.608468951366767</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.452607729745452</v>
@@ -31036,7 +30886,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.554983355432866</v>
+        <v>1.548938846152067</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.263205323619359</v>
@@ -31125,7 +30975,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.536962202903241</v>
+        <v>1.53413776758536</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.194368364498891</v>
@@ -31214,7 +31064,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.53662531744832</v>
+        <v>1.533950781678546</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.188260627849874</v>
@@ -31303,7 +31153,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.530544651907008</v>
+        <v>1.520929364129042</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.207893288208325</v>
@@ -31392,7 +31242,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.54355576747414</v>
+        <v>1.530611580051579</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.1472048489018</v>
@@ -31481,7 +31331,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.544687148855452</v>
+        <v>1.525873818165244</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.147303722042394</v>
@@ -31570,7 +31420,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.472323345172046</v>
+        <v>1.46410586460241</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.036510515053484</v>
@@ -31659,7 +31509,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.466914487377069</v>
+        <v>1.455463004026526</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.991071993802075</v>
@@ -31748,7 +31598,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.454357790705511</v>
+        <v>1.445627161798816</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.949833364905127</v>
@@ -31837,7 +31687,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.282422487579745</v>
+        <v>1.276360112067085</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.526925634879338</v>
@@ -31926,7 +31776,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.263656853620995</v>
+        <v>1.25994340951285</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.536128394221827</v>
@@ -32015,7 +31865,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.258986814357085</v>
+        <v>1.255216603285807</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.531748781689948</v>
@@ -32104,7 +31954,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.263480556067539</v>
+        <v>1.257608086021043</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.542561464604999</v>
@@ -32193,7 +32043,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.264071408853238</v>
+        <v>1.259247733179389</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.532431240467048</v>
@@ -32282,7 +32132,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.260729659179838</v>
+        <v>1.254379135248791</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.530963469080318</v>
@@ -32371,7 +32221,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.279514899302496</v>
+        <v>1.273142826305911</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.519666399333763</v>
@@ -32460,7 +32310,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.264858667246788</v>
+        <v>1.260406706061318</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.533223800435275</v>
@@ -32549,7 +32399,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.200018996841787</v>
+        <v>1.192708309161422</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.614733107322045</v>
@@ -32638,7 +32488,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.191645866820812</v>
+        <v>1.188573328266528</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.611612878187437</v>
@@ -32924,7 +32774,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.514207456757689</v>
+        <v>1.528852036567037</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.06264646703893</v>
@@ -33013,7 +32863,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.496475997704372</v>
+        <v>1.50830249963613</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.08075247398098</v>
@@ -33102,7 +32952,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.503485455244027</v>
+        <v>1.516207194175863</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.028392616860539</v>
@@ -33191,7 +33041,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.510250672682715</v>
+        <v>1.52520442624443</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.06814217277591</v>
@@ -33280,7 +33130,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.522015875175079</v>
+        <v>1.536945323980533</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.006965622691435</v>
@@ -33369,7 +33219,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.521792116157607</v>
+        <v>1.540694774515869</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.025429353281937</v>
@@ -33458,7 +33308,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.536385766644477</v>
+        <v>1.555224291134641</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.053178094115247</v>
@@ -33547,7 +33397,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.536550780763896</v>
+        <v>1.55489841259336</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.038383509674588</v>
@@ -33636,7 +33486,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.534640746266291</v>
+        <v>1.555978979742776</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.041521548630798</v>
@@ -33725,7 +33575,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.538606872572578</v>
+        <v>1.55674229917268</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.996060355523133</v>
@@ -33814,7 +33664,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.673591810055186</v>
+        <v>1.69190932870378</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.334674880686256</v>
@@ -33903,7 +33753,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.664289290080867</v>
+        <v>1.682786121089128</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.415505286044258</v>
@@ -33992,7 +33842,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.670547845764304</v>
+        <v>1.687088595021365</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.374649779167488</v>
@@ -34081,7 +33931,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.646152402768784</v>
+        <v>1.661576963717987</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.402686410692613</v>
@@ -34170,7 +34020,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.64490505297384</v>
+        <v>1.656571611524142</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.536391005715036</v>
@@ -34259,7 +34109,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.654870815863597</v>
+        <v>1.667325707419479</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.364098102971308</v>
@@ -34348,7 +34198,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.683230714052335</v>
+        <v>1.693486597294002</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.214001584494896</v>
@@ -34437,7 +34287,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.684562791484951</v>
+        <v>1.694843556854832</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.41239733074603</v>
@@ -34526,7 +34376,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.690959086513984</v>
+        <v>1.697488634833295</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.148285865253312</v>
@@ -34615,7 +34465,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.678265031306126</v>
+        <v>1.682642722955976</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.147149573252555</v>
@@ -34704,7 +34554,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.674603149349755</v>
+        <v>1.677314201085532</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.626628494675623</v>
@@ -34793,7 +34643,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.67286161858645</v>
+        <v>1.678252356541509</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.542540628961707</v>
@@ -34882,7 +34732,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.680151864381213</v>
+        <v>1.685918942783277</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.450348537777693</v>
@@ -34971,7 +34821,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.672782440477605</v>
+        <v>1.6804177682252</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.147427728788419</v>
@@ -35060,7 +34910,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.679839740483229</v>
+        <v>1.691796374031403</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.582040835630941</v>
@@ -35149,7 +34999,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.687635370050693</v>
+        <v>1.694513416262564</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.337183770248792</v>
@@ -35238,7 +35088,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.703080047132031</v>
+        <v>1.702550259961782</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.480254697567527</v>
@@ -35327,7 +35177,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.704890845576005</v>
+        <v>1.70385662989349</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.033769371933352</v>
@@ -35416,7 +35266,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.727078273450454</v>
+        <v>1.726946126535636</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.55840894680523</v>
@@ -35505,7 +35355,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.722281451859008</v>
+        <v>1.722711169620443</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.468395945666712</v>
@@ -35594,7 +35444,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.72480949296375</v>
+        <v>1.720912031540297</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.175376106579814</v>
@@ -35683,7 +35533,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.728343553536107</v>
+        <v>1.721911447632332</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.216616134967275</v>
@@ -35772,7 +35622,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.731797302476489</v>
+        <v>1.724324959786339</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.494272359023483</v>
@@ -35861,7 +35711,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.732819033072737</v>
+        <v>1.728076069453441</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.080756737749159</v>
@@ -35950,7 +35800,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.744390157329948</v>
+        <v>1.741934167502903</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.702990783711278</v>
@@ -36039,7 +35889,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.741998869928051</v>
+        <v>1.740239461532114</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.747383023319876</v>
@@ -36128,7 +35978,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.745619902942137</v>
+        <v>1.735793706778418</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.869262786085516</v>
@@ -36217,7 +36067,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.749274171499454</v>
+        <v>1.735216748727023</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.73676381476389</v>
@@ -36306,7 +36156,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.730375036897777</v>
+        <v>1.720402459902061</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.727665300281373</v>
@@ -36395,7 +36245,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.722873550537469</v>
+        <v>1.71162451209954</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.907848515883494</v>
@@ -36484,7 +36334,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.721659665608157</v>
+        <v>1.711151316476883</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.914803367434405</v>
@@ -36573,7 +36423,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.72238918234838</v>
+        <v>1.712816236796016</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.949341257302267</v>
@@ -36662,7 +36512,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.723868020270839</v>
+        <v>1.712655601190196</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.8919525608679</v>
@@ -36751,7 +36601,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.727501974524547</v>
+        <v>1.710446903857837</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.956953856213008</v>
@@ -36840,7 +36690,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.737907956999713</v>
+        <v>1.724130878696206</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.86695950818296</v>
@@ -36929,7 +36779,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.741781818535179</v>
+        <v>1.730078335512486</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.920916814970138</v>
@@ -37018,7 +36868,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.726802921945582</v>
+        <v>1.718009990842286</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.072558447808668</v>
@@ -37107,7 +36957,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.71317312699427</v>
+        <v>1.705810416419114</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.037336386025393</v>
@@ -37196,7 +37046,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.69206841929674</v>
+        <v>1.685029517754826</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.83081873096601</v>
@@ -37285,7 +37135,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.686778393800035</v>
+        <v>1.684212981235168</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.955306640470984</v>
@@ -37374,7 +37224,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.689404555168438</v>
+        <v>1.685724788363341</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.373342824447382</v>
@@ -37463,7 +37313,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.68658462892362</v>
+        <v>1.684842792490268</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.274697768789555</v>
@@ -37552,7 +37402,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.687712986856665</v>
+        <v>1.6888060058623</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.007420594893222</v>
@@ -37641,7 +37491,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.704163477235288</v>
+        <v>1.70069025006576</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.2490854373181</v>
@@ -37730,7 +37580,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.709226939136932</v>
+        <v>1.702646187509911</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.219482141410476</v>
@@ -37819,7 +37669,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.682377679452129</v>
+        <v>1.680884724058051</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.320913137706887</v>
@@ -37908,7 +37758,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.683669483513462</v>
+        <v>1.679024111483295</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.249220840660845</v>
@@ -37997,7 +37847,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.686881313888871</v>
+        <v>1.686341040020471</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.118342726788242</v>
@@ -38086,7 +37936,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.647608556524159</v>
+        <v>1.657812017601996</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.634953003124676</v>
@@ -38175,7 +38025,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.628172968702153</v>
+        <v>1.630983662598783</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.659751512398248</v>
@@ -38264,7 +38114,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.606926598652723</v>
+        <v>1.610538291927341</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.581803446983591</v>
@@ -38353,7 +38203,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.617895696398173</v>
+        <v>1.624657014127673</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.569125000773661</v>
@@ -38442,7 +38292,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.631369739351216</v>
+        <v>1.638413334388483</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.375182260408863</v>
@@ -38531,7 +38381,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.659047149046331</v>
+        <v>1.661659211915224</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.670743922012568</v>
@@ -38620,7 +38470,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.663007157193913</v>
+        <v>1.663269504441368</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.574687828347017</v>
@@ -38709,7 +38559,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.660427808256893</v>
+        <v>1.66667874796003</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.594457212474417</v>
@@ -38798,7 +38648,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.62980525596872</v>
+        <v>1.644750125371742</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.614992825214333</v>
@@ -38887,7 +38737,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.630486219047682</v>
+        <v>1.640639985701162</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.624191039595122</v>
@@ -39173,7 +39023,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.388267987071917</v>
+        <v>1.385583415913261</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.101937442415768</v>
@@ -39262,7 +39112,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.418236904376891</v>
+        <v>1.411620344934245</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.138540836215701</v>
@@ -39351,7 +39201,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.439709004109719</v>
+        <v>1.431575996475457</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.090102811731643</v>
@@ -39440,7 +39290,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.446771291095967</v>
+        <v>1.443997650484641</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.04697182615044</v>
@@ -39529,7 +39379,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.443329069593099</v>
+        <v>1.437563031169451</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.05284643372103</v>
@@ -39618,7 +39468,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.445348215355807</v>
+        <v>1.440965610257344</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.01443735476318</v>
@@ -39707,7 +39557,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.461879510978831</v>
+        <v>1.455155949309062</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.070000094172788</v>
@@ -39796,7 +39646,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.474077044397072</v>
+        <v>1.465017685061382</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.009965599127917</v>
@@ -39885,7 +39735,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.47096263998275</v>
+        <v>1.461498151269813</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.034819580171376</v>
@@ -39974,7 +39824,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.499269065992583</v>
+        <v>1.488320481903203</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.984656625152741</v>
@@ -40063,7 +39913,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.574057658196231</v>
+        <v>1.559580952803275</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.229401611149991</v>
@@ -40152,7 +40002,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.65546826093622</v>
+        <v>1.624728038428432</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.815640018897568</v>
@@ -40241,7 +40091,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.66362045544404</v>
+        <v>1.636786074270396</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.27930813339193</v>
@@ -40330,7 +40180,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.650192176200667</v>
+        <v>1.633016432294417</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.168166558333858</v>
@@ -40419,7 +40269,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.641743297065204</v>
+        <v>1.623878547105495</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.285772830894423</v>
@@ -40508,7 +40358,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.649419360359997</v>
+        <v>1.625740926384134</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.307855178884893</v>
@@ -40597,7 +40447,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.663973657772406</v>
+        <v>1.640313749328786</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.552682490966885</v>
@@ -40686,7 +40536,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.666373728002376</v>
+        <v>1.64097009613303</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.28038719530381</v>
@@ -40775,7 +40625,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.670382411852139</v>
+        <v>1.640663819960085</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.308412957395855</v>
@@ -40864,7 +40714,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.663477222521861</v>
+        <v>1.635701394585604</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.238835279812279</v>
@@ -40953,7 +40803,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.659288456052178</v>
+        <v>1.625657421814176</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.223473629628361</v>
@@ -41042,7 +40892,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.664542281789359</v>
+        <v>1.633097677216484</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.319257779331312</v>
@@ -41131,7 +40981,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.666056841416806</v>
+        <v>1.63648628083449</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.354813237330046</v>
@@ -41220,7 +41070,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.668859172138019</v>
+        <v>1.640382124329096</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.054029565167191</v>
@@ -41309,7 +41159,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.685224816130729</v>
+        <v>1.652778606366331</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.015262542984552</v>
@@ -41398,7 +41248,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.684047743652853</v>
+        <v>1.651408635376805</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.49518408626037</v>
@@ -41487,7 +41337,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.683326386739366</v>
+        <v>1.656548546557074</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.356451718798012</v>
@@ -41576,7 +41426,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.694060321776402</v>
+        <v>1.657326291521566</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.990502352652754</v>
@@ -41665,7 +41515,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.708582820699758</v>
+        <v>1.665435433570761</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.449593488869183</v>
@@ -41754,7 +41604,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.718740755484474</v>
+        <v>1.676020095369068</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.543865248824238</v>
@@ -41843,7 +41693,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.720185953430333</v>
+        <v>1.676782185645474</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.196318644783428</v>
@@ -41932,7 +41782,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.716793744626531</v>
+        <v>1.674563690077405</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.577840952679696</v>
@@ -42021,7 +41871,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.72174804196143</v>
+        <v>1.677226254002427</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.563519177970995</v>
@@ -42110,7 +41960,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.714725159921257</v>
+        <v>1.672941545894929</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.153979551172303</v>
@@ -42199,7 +42049,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.728625297692479</v>
+        <v>1.683764931599625</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.515957824552663</v>
@@ -42288,7 +42138,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.735296812359779</v>
+        <v>1.695694930056665</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.501383142954823</v>
@@ -42377,7 +42227,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.729279660181845</v>
+        <v>1.69354984818453</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.602527979290884</v>
@@ -42466,7 +42316,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.736988415206375</v>
+        <v>1.699349734949058</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.222253548255754</v>
@@ -42555,7 +42405,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.722610712595587</v>
+        <v>1.685407904348487</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.556950582991765</v>
@@ -42644,7 +42494,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.721761814844178</v>
+        <v>1.687052573476465</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.493883227156743</v>
@@ -42733,7 +42583,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.718247067920641</v>
+        <v>1.685825576712825</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.340866571321063</v>
@@ -42822,7 +42672,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.716004855539535</v>
+        <v>1.679325791969463</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.591769098487394</v>
@@ -42911,7 +42761,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.710020592088945</v>
+        <v>1.677055186767676</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.631510397339405</v>
@@ -43000,7 +42850,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.708008198392678</v>
+        <v>1.679726149936436</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.589189669250566</v>
@@ -43089,7 +42939,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.692647333378972</v>
+        <v>1.668055127201411</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.388458385018943</v>
@@ -43178,7 +43028,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.695512808936471</v>
+        <v>1.677817432393318</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.292186436175526</v>
@@ -43267,7 +43117,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.686658651782193</v>
+        <v>1.664662634700105</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.820663355180733</v>
@@ -43356,7 +43206,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.618038215540671</v>
+        <v>1.612336852363578</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.306470582728632</v>
@@ -43445,7 +43295,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.611704290296081</v>
+        <v>1.602613474981684</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.436825968927451</v>
@@ -43534,7 +43384,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.552821853826849</v>
+        <v>1.557198205422819</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.277380832063078</v>
@@ -43623,7 +43473,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.548975097094661</v>
+        <v>1.549627205161988</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.188545185688876</v>
@@ -43712,7 +43562,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.550355560731169</v>
+        <v>1.551757471706439</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.132313217489254</v>
@@ -43801,7 +43651,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.549557037818709</v>
+        <v>1.545269634614512</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.228259215185007</v>
@@ -43890,7 +43740,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.557622000033334</v>
+        <v>1.548142517258675</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.24927630277933</v>
@@ -43979,7 +43829,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.554265639533197</v>
+        <v>1.541132730675377</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.173647376539761</v>
@@ -44068,7 +43918,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.542681824272742</v>
+        <v>1.531660651411272</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.187219119900556</v>
@@ -44157,7 +44007,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.547825361509264</v>
+        <v>1.535080978160947</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.187398806583789</v>
@@ -44246,7 +44096,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.533884310749779</v>
+        <v>1.519674094176119</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.17954686518648</v>
@@ -44335,7 +44185,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.521354475241724</v>
+        <v>1.510425267022169</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.265123131199636</v>
@@ -44424,7 +44274,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.530444367909337</v>
+        <v>1.511086801323537</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.231504974695108</v>
@@ -44513,7 +44363,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.521586276181254</v>
+        <v>1.499986571658093</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.207249845944456</v>
@@ -44602,7 +44452,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.523026403568473</v>
+        <v>1.499028815333652</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.191288429068853</v>
@@ -44691,7 +44541,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.529061639033084</v>
+        <v>1.50713526165625</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.332988070246832</v>
@@ -44780,7 +44630,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.540807826299772</v>
+        <v>1.518445963652135</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.291845970139297</v>
@@ -44869,7 +44719,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.586415719590993</v>
+        <v>1.552770575186975</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.500654397779215</v>
@@ -44958,7 +44808,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.583499311226508</v>
+        <v>1.551557203604204</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.352177844210677</v>
@@ -45047,7 +44897,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.564251886773367</v>
+        <v>1.533202991923418</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.340049691393614</v>
@@ -45136,7 +44986,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.565427705767024</v>
+        <v>1.543368878845071</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.301030592974843</v>
